--- a/biology/Botanique/Monachather_paradoxus/Monachather_paradoxus.xlsx
+++ b/biology/Botanique/Monachather_paradoxus/Monachather_paradoxus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Monachather paradoxus est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Arundinoideae, originaire d'Australie[3]. C'est l'unique espèce du genre Monachater (genre monotypique).
-Ce sont des plantes herbacées vivaces, cespiteuses, aux tiges de 30 à 70 cm de long. L'inflorescence est une panicule[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Monachather paradoxus est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Arundinoideae, originaire d'Australie. C'est l'unique espèce du genre Monachater (genre monotypique).
+Ce sont des plantes herbacées vivaces, cespiteuses, aux tiges de 30 à 70 cm de long. L'inflorescence est une panicule.
 Étymologie
-Le nom générique « Monachather » est dérivé de deux racines grecques, μοναχός, (monachos), solitaire, moine, et αθηρ, αθερος (ather, atheros), arête, barbe, en référence aux épillets solitaires[4].</t>
+Le nom générique « Monachather » est dérivé de deux racines grecques, μοναχός, (monachos), solitaire, moine, et αθηρ, αθερος (ather, atheros), arête, barbe, en référence aux épillets solitaires.</t>
         </is>
       </c>
     </row>
